--- a/biology/Zoologie/Deroceras_agreste/Deroceras_agreste.xlsx
+++ b/biology/Zoologie/Deroceras_agreste/Deroceras_agreste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Loche blanche
-Deroceras agreste ou loche blanche[1] est une espèce de limaces terrestres de la famille des Agriolimacidae[2],[3]
+Deroceras agreste ou loche blanche est une espèce de limaces terrestres de la famille des Agriolimacidae,
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette limace brun pâle[2] a une tête plus sombre avec des tentacules. Elle mesure 5 cm de long. Son mucus est clair mais devient blanc quand elle est menacée[2].
-Elle se nourrit de plantes vivantes ou mortes et est considérée comme ravageur en agriculture pour des espèces comme la laitue. Sa durée de vie est d'environ un an[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette limace brun pâle a une tête plus sombre avec des tentacules. Elle mesure 5 cm de long. Son mucus est clair mais devient blanc quand elle est menacée.
+Elle se nourrit de plantes vivantes ou mortes et est considérée comme ravageur en agriculture pour des espèces comme la laitue. Sa durée de vie est d'environ un an.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a pour habitat les herbages, les lisières fraîches et humides ainsi que les marais.
-Cette espèce est originaire d'Asie, d'Europe centrale et du Nord[2].
+Cette espèce est originaire d'Asie, d'Europe centrale et du Nord.
 </t>
         </is>
       </c>
